--- a/biology/Médecine/Journée_mondiale_du_donneur_de_sang/Journée_mondiale_du_donneur_de_sang.xlsx
+++ b/biology/Médecine/Journée_mondiale_du_donneur_de_sang/Journée_mondiale_du_donneur_de_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_du_donneur_de_sang</t>
+          <t>Journée_mondiale_du_donneur_de_sang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Journée mondiale du donneur de sang est une journée internationale organisée chaque 14 juin par l'Organisation mondiale de la santé d'après l'anniversaire de Karl Landsteiner. Elle est consacrée à la promotion et la sensibilisation du don de sang et du produit sanguin labile pour la santé à tous.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_du_donneur_de_sang</t>
+          <t>Journée_mondiale_du_donneur_de_sang</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Campagnes similaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale :
 Journée mondiale de lutte contre la tuberculose (le 24 mars) ;
 Journée mondiale de la santé (le 7 avril) ;
 Journée mondiale du paludisme (le 25 avril) ;
